--- a/biology/Histoire de la zoologie et de la botanique/Ivan_Sazima/Ivan_Sazima.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ivan_Sazima/Ivan_Sazima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Sázima est un herpétologiste brésilien.
 Diplômé de Université de São Paulo en 1980, il étudie à l'université de la Ruhr à Bochum.
@@ -513,7 +525,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bokermannohyla sazimai (Cardoso &amp; Andrade, 1982)
 Hylodes sazimai Haddad &amp; Pombal, 1995                                *Pterinopelma sazimai Bertani, Nagahama et Fukushima, 2011</t>
@@ -544,7 +558,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bokermannohyla nanuzae (Bokermann &amp; Sazima, 1973)
@@ -598,7 +614,9 @@
           <t>Référence biographique et bibliographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(pt) CV pro
 Sazima est l’abréviation habituelle de Ivan Sazima en zoologie.
